--- a/dist/data/profiles/xlsx/bluff/profile 21-28 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-28 graph.xlsx
@@ -2277,11 +2277,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87260324"/>
-        <c:axId val="27757382"/>
+        <c:axId val="14946205"/>
+        <c:axId val="9967421"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87260324"/>
+        <c:axId val="14946205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,12 +2316,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27757382"/>
+        <c:crossAx val="9967421"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27757382"/>
+        <c:axId val="9967421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87260324"/>
+        <c:crossAx val="14946205"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
